--- a/public/excel/tpi.xlsx
+++ b/public/excel/tpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp_8c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC63FC-6412-4C3C-B820-203CE8FEDBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE35201-CB06-4297-94CD-67EE71E8E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>nama</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Tim2</t>
+  </si>
+  <si>
+    <t>Tim3</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -113,8 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -438,12 +440,12 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="3" width="6.7265625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.90625" style="2" customWidth="1"/>
@@ -457,28 +459,28 @@
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -493,7 +495,7 @@
       <c r="C2" s="2">
         <v>2023</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="2">
@@ -508,20 +510,35 @@
       <c r="H2" s="1">
         <v>199209262017086</v>
       </c>
-      <c r="I2" s="1">
-        <v>199209262017087</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A40" si="0">IF(COUNTIF(B3:D3,1),_xlfn.CONCAT(B3,C3,"WIL",D3),"")</f>
-        <v/>
-      </c>
-      <c r="B3" s="1"/>
+        <f>IF(COUNTIF(B3:D3,1),_xlfn.CONCAT(B3,C3,"WIL",D3),"")</f>
+        <v>Tim32023WIL1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>199209262017072</v>
+      </c>
+      <c r="F3" s="2">
+        <v>199209262017080</v>
+      </c>
+      <c r="G3" s="2">
+        <v>199209262017087</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A40" si="0">IF(COUNTIF(B4:D4,1),_xlfn.CONCAT(B4,C4,"WIL",D4),"")</f>
         <v/>
       </c>
     </row>

--- a/public/excel/tpi.xlsx
+++ b/public/excel/tpi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp_8c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE35201-CB06-4297-94CD-67EE71E8E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC08D43-40DB-4C1C-AF54-4620A3B200D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,13 +46,13 @@
     <t>anggota_3</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Tim2</t>
-  </si>
-  <si>
-    <t>Tim3</t>
+    <t>Tim 2</t>
+  </si>
+  <si>
+    <t>Tim 1</t>
+  </si>
+  <si>
+    <t>Tim 3</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,12 +86,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -116,7 +110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -437,329 +430,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="3" width="6.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="6.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>199209262017072</v>
+      </c>
+      <c r="E2" s="1">
+        <v>199209262017082</v>
+      </c>
+      <c r="F2" s="1">
+        <v>199209262017085</v>
+      </c>
+      <c r="G2" s="1">
+        <v>199209262017086</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
+      <c r="D3" s="2">
+        <v>199209262017072</v>
+      </c>
+      <c r="E3" s="2">
+        <v>199209262017080</v>
+      </c>
+      <c r="F3" s="2">
+        <v>199209262017087</v>
+      </c>
+      <c r="G3" s="2">
+        <v>199209262017074</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="str">
-        <f>IF(COUNTIF(B2:D2,1),_xlfn.CONCAT(B2,C2,"WIL",D2),"")</f>
-        <v>Tim22023WIL1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
         <v>2023</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>199209262017072</v>
-      </c>
-      <c r="F2" s="1">
-        <v>199209262017082</v>
-      </c>
-      <c r="G2" s="1">
-        <v>199209262017085</v>
-      </c>
-      <c r="H2" s="1">
-        <v>199209262017086</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="str">
-        <f>IF(COUNTIF(B3:D3,1),_xlfn.CONCAT(B3,C3,"WIL",D3),"")</f>
-        <v>Tim32023WIL1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>199209262017072</v>
-      </c>
-      <c r="F3" s="2">
-        <v>199209262017080</v>
-      </c>
-      <c r="G3" s="2">
-        <v>199209262017087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A40" si="0">IF(COUNTIF(B4:D4,1),_xlfn.CONCAT(B4,C4,"WIL",D4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D4" s="2">
+        <v>199209262017079</v>
+      </c>
+      <c r="E4" s="2">
+        <v>199209262017081</v>
+      </c>
+      <c r="F4" s="2">
+        <v>199209262017075</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
